--- a/result/Database_central.xlsx
+++ b/result/Database_central.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,26 +473,29 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Closeness</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Degree</t>
         </is>
       </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -528,62 +531,77 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>node1</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>value1</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>node2</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>value2</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>node3</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>value3</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>node1</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>value1</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>node2</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>value2</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>node3</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>value3</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
         </is>
       </c>
     </row>
@@ -617,41 +635,39 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
+        <v>0.003968253968253968</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>0.25</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>행</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>열</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O4" t="n">
-        <v>0.25</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -659,12 +675,23 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>tuple</t>
+          <t>table</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>0.25</v>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>tuple</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -696,41 +723,39 @@
       <c r="G5" t="n">
         <v>0.02727272727272727</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>0.01363636363636364</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>오픈소스</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.1454545454545455</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>0.1143939393939394</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>SQL</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -738,11 +763,22 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="6">
@@ -775,54 +811,63 @@
       <c r="G6" t="n">
         <v>0.2407407407407408</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>0.0520960520960521</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.7714285714285715</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.5192307692307693</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>0.4365106764361138</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>1.407407407407407</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>SQL</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>DBMS</t>
         </is>
       </c>
       <c r="S6" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>DBMS</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1534391534391535</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -854,53 +899,62 @@
       <c r="G7" t="n">
         <v>0.3416666666666667</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>0.0933974358974359</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.3723076923076923</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>관계형모델</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.3723076923076923</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>데이터모델</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.3652830188679245</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>0.2612931688131085</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>0.64</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>데이터모델</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>0.52</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>데이터</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>0.48</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1969230769230769</v>
       </c>
     </row>
     <row r="8">
@@ -933,53 +987,62 @@
       <c r="G8" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>0.03602941176470589</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.225</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.21875</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="n">
+        <v>0.1711641688761066</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.6875</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>0.375</v>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
         <v>0.3125</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1544117647058824</v>
       </c>
     </row>
     <row r="9">
@@ -1012,53 +1075,62 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>0.0006127450980392157</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>자동완료트랜잭션</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.07843137254901961</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>명시적트랜잭션</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.07843137254901961</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>수동완료트랜잭션</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.07843137254901961</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="n">
+        <v>0.05882352941176469</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.8235294117647058</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>트랜잭션</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>일관성</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>0.05882352941176471</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="10">
@@ -1091,53 +1163,62 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>0.009722222222222221</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>key-value저장방식</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>키</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O10" t="n">
+        <v>0.1259259259259259</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -1170,54 +1251,63 @@
       <c r="G11" t="n">
         <v>0.1025641025641026</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>정보시스템</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.3516483516483517</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>데이터</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.2461538461538462</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>정보</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.2461538461538462</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="n">
+        <v>0.1792033363461935</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>정보시스템</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>0.5384615384615385</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>DBMS</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>SQL</t>
         </is>
       </c>
       <c r="S11" t="n">
         <v>0.4615384615384616</v>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2307692307692308</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1249,54 +1339,63 @@
       <c r="G12" t="n">
         <v>0.1474358974358974</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.3769230769230769</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.3769230769230769</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>관계형데이터베이스</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.3141025641025641</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="n">
+        <v>0.2719659461417703</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>0.6923076923076923</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>MySQL</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.5384615384615385</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>SQL</t>
         </is>
       </c>
       <c r="S12" t="n">
         <v>0.5384615384615385</v>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2857142857142858</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1328,53 +1427,62 @@
       <c r="G13" t="n">
         <v>0.1268115942028986</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>0.03239130434782608</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.2552083333333334</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.2467105263157895</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>관계연산</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.1953125</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="n">
+        <v>0.1420915714166988</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
         <v>0.2916666666666666</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>관계</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.1366666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -1407,53 +1515,62 @@
       <c r="G14" t="n">
         <v>0.02153846153846154</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>0.004786324786324786</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>tuple</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.106508875739645</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>무작위</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.09423076923076922</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>무속성</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.09423076923076922</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="n">
+        <v>0.05996968368763241</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.3461538461538461</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>관계형데이터베이스</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>속성</t>
         </is>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>0.1538461538461539</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.07977207977207977</v>
       </c>
     </row>
     <row r="15">
@@ -1486,53 +1603,62 @@
       <c r="G15" t="n">
         <v>0.07526881720430108</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>0.02090053763440861</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>관계</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.247800586510264</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>무결성제약</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.228336495888678</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>데이터구조</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.1947004608294931</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="n">
+        <v>0.1240961163366972</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>관계</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>0.4838709677419355</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>0.2580645161290323</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="16">
@@ -1565,53 +1691,62 @@
       <c r="G16" t="n">
         <v>0.03846153846153846</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>0.01373626373626374</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>도메인</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.1230769230769231</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>릴레이션스키마</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.1230769230769231</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>tuple</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="n">
+        <v>0.09725274725274725</v>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>관계</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>관계형데이터베이스</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17">
@@ -1644,54 +1779,63 @@
       <c r="G17" t="n">
         <v>0.07142857142857144</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>0.02930402930402931</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.3616071428571429</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.2747252747252747</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>유용성</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.2410714285714286</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="n">
+        <v>0.1681458951101808</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>0.5</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>MySQL</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>SQL</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>0.3571428571428571</v>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1723,53 +1867,62 @@
       <c r="G18" t="n">
         <v>0.0641025641025641</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18" t="n">
+        <v>0.02426739926739926</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.2769230769230769</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>종속성</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.2355769230769231</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O18" t="n">
+        <v>0.15471385299682</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>0.3076923076923077</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.2087912087912088</v>
       </c>
     </row>
     <row r="19">
@@ -1802,41 +1955,39 @@
       <c r="G19" t="n">
         <v>0.025</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>0.004761904761904762</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.1553273427471117</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>ABCD</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.1180487804878049</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.1135084427767355</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="n">
+        <v>0.05882076501833385</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>SQL</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>MySQL</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -1844,12 +1995,23 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>CRUD</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>0.1951219512195122</v>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.07317073170731707</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1881,53 +2043,62 @@
       <c r="G20" t="n">
         <v>0.04285714285714286</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>0.01093073593073593</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>계층형모델</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.1558441558441558</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>네트워크형모델</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.1558441558441558</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>행</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.1224489795918367</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>0.08923010231964436</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>0.1904761904761905</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="21">
@@ -1960,53 +2131,62 @@
       <c r="G21" t="n">
         <v>0.0249554367201426</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0.003692386045327221</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>원활한읽고쓰기</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.06722689075630252</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>데이터관리</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.06617647058823529</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>CREATE</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.04901960784313725</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O21" t="n">
+        <v>0.04417567026810725</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>0.1764705882352941</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.06050420168067226</v>
       </c>
     </row>
     <row r="22">
@@ -2039,54 +2219,63 @@
       <c r="G22" t="n">
         <v>0.05</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="H22" t="n">
+        <v>0.01352564102564103</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.16</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>0.1507692307692308</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O22" t="n">
+        <v>0.09877334691099873</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>0.32</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>table</t>
         </is>
       </c>
       <c r="S22" t="n">
         <v>0.28</v>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.1169230769230769</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2118,53 +2307,62 @@
       <c r="G23" t="n">
         <v>0.05228758169934641</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>CREATE</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.1701388888888889</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>READ</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.1701388888888889</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.1701388888888889</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="n">
+        <v>0.1110678105195649</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.152046783625731</v>
       </c>
     </row>
     <row r="24">
@@ -2197,54 +2395,63 @@
       <c r="G24" t="n">
         <v>0.09926470588235294</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>0.03288398692810458</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.2507739938080495</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.2507739938080495</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>0.226890756302521</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="n">
+        <v>0.1503804181548114</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>table</t>
         </is>
       </c>
       <c r="S24" t="n">
         <v>0.2352941176470588</v>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1830065359477124</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2276,53 +2483,62 @@
       <c r="G25" t="n">
         <v>0.05454545454545454</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.3246753246753247</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>NoSQL</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.2840909090909091</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.2066115702479339</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="n">
+        <v>0.1775738187837118</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>0.4545454545454546</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>0.3636363636363636</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="26">
@@ -2355,41 +2571,39 @@
       <c r="G26" t="n">
         <v>0.009881422924901184</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>0.003623188405797101</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>key-value저장방식</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.15527950310559</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>높은유연성</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.1391304347826087</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>쿼리복잡성</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>0.1159420289855072</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="n">
+        <v>0.0706545266327875</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>높은유연성</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2397,11 +2611,22 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>높은유연성</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
           <t>key-value저장방식</t>
         </is>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>0.1739130434782609</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="27">
@@ -2434,54 +2659,63 @@
       <c r="G27" t="n">
         <v>0.02564102564102564</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>0.01373626373626373</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="n">
+        <v>0.2026862026862027</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>table</t>
         </is>
       </c>
       <c r="S27" t="n">
         <v>0.4615384615384616</v>
       </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2513,53 +2747,62 @@
       <c r="G28" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" t="n">
+        <v>0.07355072463768116</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>수직확장</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="n">
+        <v>0.244312221655783</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>0.7083333333333333</v>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
         <v>0.5833333333333333</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>0.4166666666666666</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.1566666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -2592,53 +2835,62 @@
       <c r="G29" t="n">
         <v>0.1142857142857143</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>0.02827380952380953</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>where</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.1555555555555556</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0.1555555555555556</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O29" t="n">
+        <v>0.1142526455026455</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>0.4666666666666667</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
@@ -2671,53 +2923,62 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="H30" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>0.25</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>행</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>0.1875</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>열</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>0.1875</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="n">
+        <v>0.1435185185185185</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>0.625</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>0.5</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
         <v>0.375</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="31">
@@ -2750,41 +3011,39 @@
       <c r="G31" t="n">
         <v>0.1025</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>0.0276923076923077</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>대용량데이터처리</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0.16</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>빠른정렬</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>유저</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0.14</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="n">
+        <v>0.1178995177009145</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>DBMS</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>CRUD</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -2792,11 +3051,22 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>RDBMS</t>
+          <t>CRUD</t>
         </is>
       </c>
       <c r="S31" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
         <v>0.24</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.1261538461538462</v>
       </c>
     </row>
     <row r="32">
@@ -2829,53 +3099,62 @@
       <c r="G32" t="n">
         <v>0.5054945054945056</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="H32" t="n">
+        <v>0.1380952380952381</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>0.5185185185185185</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0.4827586206896552</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>계층형모델</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>0.4666666666666667</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="n">
+        <v>0.3705041173070465</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>0.9285714285714285</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>0.7142857142857142</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
         <v>0.6428571428571428</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.3047619047619048</v>
       </c>
     </row>
     <row r="33">
@@ -2908,41 +3187,39 @@
       <c r="G33" t="n">
         <v>0.1339869281045752</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="H33" t="n">
+        <v>0.03594771241830066</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
         <v>0.2722222222222222</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.2474747474747475</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>외래키</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.2091503267973856</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O33" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.1819809857114322</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>CRUD</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -2950,11 +3227,22 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>0.4444444444444444</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.1754385964912281</v>
       </c>
     </row>
     <row r="34">
@@ -2987,41 +3275,39 @@
       <c r="G34" t="n">
         <v>0.1995073891625616</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="H34" t="n">
+        <v>0.05808702791461411</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
         <v>0.4053639846743295</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.3881144534115921</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>중복허용</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>0.3881144534115921</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="n">
+        <v>0.25712964041521</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>DBMS</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3029,11 +3315,22 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>0.4137931034482759</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1494252873563218</v>
       </c>
     </row>
     <row r="35">
@@ -3066,54 +3363,63 @@
       <c r="G35" t="n">
         <v>0.05228758169934641</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>0.0173718610251118</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.1984126984126984</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>0.1736111111111111</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>CREATE</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="n">
+        <v>0.123655024312919</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>table</t>
         </is>
       </c>
       <c r="S35" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.1461988304093567</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3145,54 +3451,63 @@
       <c r="G36" t="n">
         <v>0.02164502164502164</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>0.006493506493506493</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>접속</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.1856060606060606</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>0.1713286713286713</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>SQL서버</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>0.1392045454545454</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O36" t="n">
+        <v>0.08346662395575437</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
         <v>0.3181818181818182</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>DBMS</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>CRUD</t>
         </is>
       </c>
       <c r="S36" t="n">
         <v>0.2272727272727273</v>
       </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1185770750988142</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3224,53 +3539,62 @@
       <c r="G37" t="n">
         <v>0.2873563218390805</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>0.06182266009852217</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>0.58</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>동시접속</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>0.5</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>0.4677419354838709</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="n">
+        <v>0.3541462613442418</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>1.137931034482759</v>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
         <v>0.7931034482758621</v>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>0.2413793103448276</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1402298850574712</v>
       </c>
     </row>
     <row r="38">
@@ -3303,53 +3627,62 @@
       <c r="G38" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="H38" t="n">
+        <v>0.06996336996336996</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
         <v>0.3214285714285714</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>0.2333333333333333</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>0.2176870748299319</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O38" t="n">
+        <v>0.1775291225291225</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="39">
@@ -3382,53 +3715,62 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>0.004761904761904761</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.1607142857142857</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O39" t="n">
+        <v>0.1002380952380952</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.1523809523809524</v>
       </c>
     </row>
     <row r="40">
@@ -3461,54 +3803,63 @@
       <c r="G40" t="n">
         <v>0.03246753246753246</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>0.006587615283267456</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>MongoDB</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>0.0818181818181818</v>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="n">
+        <v>0.06930171277997366</v>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>0.3636363636363636</v>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="S40" t="n">
         <v>0.2272727272727273</v>
       </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.09486166007905138</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3540,53 +3891,62 @@
       <c r="G41" t="n">
         <v>0.06324110671936758</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41" t="n">
+        <v>0.01169301712779973</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
         <v>0.1304347826086956</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>무결성</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>0.09937888198757763</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>명확성</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>0.09937888198757763</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O41" t="n">
+        <v>0.08010409477800781</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>0.3913043478260869</v>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>0.3478260869565217</v>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>0.3043478260869565</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.09420289855072465</v>
       </c>
     </row>
     <row r="42">
@@ -3619,53 +3979,62 @@
       <c r="G42" t="n">
         <v>0.05</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>0.01641604010025062</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.1225</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>where</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>0.1225</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>0.1125</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O42" t="n">
+        <v>0.09708694813957974</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>0.4</v>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>0.3</v>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="43">
@@ -3698,54 +4067,63 @@
       <c r="G43" t="n">
         <v>0.05333333333333334</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>0.0117948717948718</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>key-value저장방식</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.1107692307692308</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>document저장방식</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>0.1107692307692308</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.09142857142857143</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="n">
+        <v>0.07223621677467831</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>0.32</v>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S43" t="n">
         <v>0.2</v>
       </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.09538461538461539</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3777,41 +4155,39 @@
       <c r="G44" t="n">
         <v>0.2068965517241379</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="n">
+        <v>0.03226600985221675</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>NoSQL</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>0.2206896551724138</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
         <v>0.208128078817734</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>0.1609195402298851</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="n">
+        <v>0.1434602994953672</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>NoSQL</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>0.4827586206896551</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -3819,11 +4195,22 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>0.4827586206896551</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>0.1724137931034483</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.09425287356321838</v>
       </c>
     </row>
     <row r="45">
@@ -3856,54 +4243,63 @@
       <c r="G45" t="n">
         <v>0.007575757575757576</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="n">
+        <v>0.003496503496503497</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>0.1875</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="n">
+        <v>0.1028846153846154</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>CRUD</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S45" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.1794871794871795</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3935,53 +4331,62 @@
       <c r="G46" t="n">
         <v>0.02564102564102564</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="n">
+        <v>0.008699633699633698</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>수직확장</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>수평확장</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="n">
+        <v>0.08699633699633699</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
         <v>0.2307692307692308</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.1318681318681318</v>
       </c>
     </row>
     <row r="47">
@@ -4014,54 +4419,63 @@
       <c r="G47" t="n">
         <v>0.05</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>0.01374458874458875</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.1488095238095238</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>트랜잭션</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>원자성</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>0.1296296296296296</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="n">
+        <v>0.08445248163544573</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>outerjoin</t>
         </is>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>관계대응</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>데이터베이스</t>
         </is>
       </c>
       <c r="S47" t="n">
         <v>0.2380952380952381</v>
       </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>데이터베이스</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.1082251082251082</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4093,41 +4507,39 @@
       <c r="G48" t="n">
         <v>0.01428571428571429</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="H48" t="n">
+        <v>0.005059523809523811</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>수직확장</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.12</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O48" t="n">
-        <v>0.4</v>
+        <v>0.09777777777777777</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>non-RDBMS</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4135,11 +4547,22 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
+          <t>non-RDBMS</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -4172,54 +4595,63 @@
       <c r="G49" t="n">
         <v>0.1660079051383399</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="H49" t="n">
+        <v>0.05014822134387351</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>0.3277591973244147</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>0.2938530734632684</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>수직확장</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>0.2582345191040843</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="n">
+        <v>0.1937216551635199</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>0.6086956521739131</v>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.3913043478260869</v>
-      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>SQL</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S49" t="n">
         <v>0.3913043478260869</v>
       </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>0.3913043478260869</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.1630434782608695</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4251,53 +4683,62 @@
       <c r="G50" t="n">
         <v>0.008045977011494253</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>0.002224694104560623</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>일관성</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.08888888888888888</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>INSERT</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>0.05333333333333334</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>SELECT</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>0.05333333333333334</v>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="n">
+        <v>0.04591397849462366</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>0.3</v>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
         <v>0.2333333333333333</v>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S50" t="n">
+      <c r="U50" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.06666666666666668</v>
       </c>
     </row>
     <row r="51">
@@ -4330,53 +4771,62 @@
       <c r="G51" t="n">
         <v>0.01052631578947368</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="n">
+        <v>0.002130325814536341</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>무결성</t>
         </is>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>0.1125</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>CREATE</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>READ</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O51" t="n">
+        <v>0.06329365079365079</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>0.5</v>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>0.3</v>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S51" t="n">
+      <c r="U51" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="52">
@@ -4409,54 +4859,63 @@
       <c r="G52" t="n">
         <v>0.03162055335968379</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="n">
+        <v>0.007411067193675888</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>0.2173913043478261</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>0.1391304347826087</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.1304347826086956</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="n">
+        <v>0.09221537319363406</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>0.3913043478260869</v>
       </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.2608695652173913</v>
-      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>non-RDBMS</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S52" t="n">
         <v>0.2608695652173913</v>
       </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>non-RDBMS</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.1231884057971014</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4488,41 +4947,39 @@
       <c r="G53" t="n">
         <v>0.02380952380952381</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>0.005627705627705628</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>CREATE</t>
         </is>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>0.0761904761904762</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>READ</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0.0761904761904762</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>UPDATE</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>0.0761904761904762</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="n">
+        <v>0.0611111111111111</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>CRUD</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -4530,11 +4987,22 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>RDBMS</t>
+          <t>CRUD</t>
         </is>
       </c>
       <c r="S53" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
         <v>0.1904761904761905</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.08658008658008659</v>
       </c>
     </row>
     <row r="54">
@@ -4567,53 +5035,62 @@
       <c r="G54" t="n">
         <v>0.006535947712418301</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="n">
+        <v>0.003611971104231167</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>0.1777777777777778</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>어플리케이션</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="n">
+        <v>0.0790448343079922</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>DBS</t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>0.7777777777777777</v>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="55">
@@ -4646,54 +5123,63 @@
       <c r="G55" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>0.1348484848484848</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>0.44</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>0.3181818181818182</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>관계형데이터베이스</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>0.3181818181818182</v>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="n">
+        <v>0.2821630263675718</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>0.6363636363636364</v>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>DBMS</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="S55" t="n">
         <v>0.5454545454545454</v>
       </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.3181818181818181</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4725,41 +5211,39 @@
       <c r="G56" t="n">
         <v>0.02727272727272727</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="n">
+        <v>0.009848484848484848</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>오픈소스</t>
         </is>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>0.1454545454545455</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="n">
+        <v>0.1017676767676768</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>0.4545454545454546</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>DBMS</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -4767,11 +5251,22 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>RDBMS</t>
+          <t>DBMS</t>
         </is>
       </c>
       <c r="S56" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
         <v>0.1818181818181818</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -4804,53 +5299,62 @@
       <c r="G57" t="n">
         <v>0.2</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>0.09044117647058825</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.47265625</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>0.378125</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>관계형데이터베이스</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>0.3642241379310345</v>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="n">
+        <v>0.2859062869249076</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>0.9375</v>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>0.375</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>저장데이터베이스</t>
         </is>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.2132352941176471</v>
       </c>
     </row>
     <row r="58">
@@ -4883,41 +5387,39 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="n">
+        <v>0.00505952380952381</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Ingres</t>
         </is>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>0.1</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>postgreSQL</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>0.1</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>0.1</v>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="n">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>DBMS</t>
         </is>
       </c>
       <c r="Q58" t="n">
@@ -4925,11 +5427,22 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>RDBMS</t>
+          <t>DBMS</t>
         </is>
       </c>
       <c r="S58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="59">
@@ -4962,41 +5475,39 @@
       <c r="G59" t="n">
         <v>0.00909090909090909</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>일관성</t>
         </is>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>0.2424242424242424</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>무결성</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>0.2424242424242424</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="n">
+        <v>0.1358585858585858</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="O59" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q59" t="n">
@@ -5004,11 +5515,22 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="S59" t="n">
+      <c r="U59" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="60">
@@ -5041,54 +5563,63 @@
       <c r="G60" t="n">
         <v>0.05514705882352941</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="n">
+        <v>0.03043300653594772</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>소프트웨어</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>DBS</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="n">
+        <v>0.1144551612817867</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>0.3529411764705882</v>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>소프트웨어</t>
         </is>
       </c>
       <c r="S60" t="n">
         <v>0.2941176470588235</v>
       </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1437908496732026</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5120,41 +5651,39 @@
       <c r="G61" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="n">
+        <v>0.02855177158582732</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>fragmentation</t>
         </is>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>0.1814814814814815</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>느린속도</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>0.1736111111111111</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>spatial-locality</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>0.1701388888888889</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O61" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1133937778732331</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>CRUD</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q61" t="n">
@@ -5162,11 +5691,22 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
           <t>빠른속도</t>
         </is>
       </c>
-      <c r="S61" t="n">
+      <c r="U61" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.152046783625731</v>
       </c>
     </row>
     <row r="62">
@@ -5199,54 +5739,63 @@
       <c r="G62" t="n">
         <v>0.2016666666666667</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="H62" t="n">
+        <v>0.0401923076923077</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0.2903225806451613</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>무결성</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>0.2647058823529412</v>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="O62" t="n">
+        <v>0.1633799825336059</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>0.52</v>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="S62" t="n">
         <v>0.32</v>
       </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.1292307692307692</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5278,53 +5827,62 @@
       <c r="G63" t="n">
         <v>0.03594771241830066</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>0.006191950464396284</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>스키마</t>
         </is>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>0.125</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>0.125</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O63" t="n">
+        <v>0.0956140350877193</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>0.5</v>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S63" t="n">
+      <c r="U63" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="64">
@@ -5357,53 +5915,62 @@
       <c r="G64" t="n">
         <v>0.3046153846153846</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="H64" t="n">
+        <v>0.08051282051282051</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
         <v>0.4622781065088757</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>0.4006410256410257</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>스키마</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>0.4006410256410257</v>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="n">
+        <v>0.2651331450928111</v>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
         <v>0.576923076923077</v>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="S64" t="n">
+      <c r="U64" t="n">
         <v>0.3846153846153846</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.1424501424501425</v>
       </c>
     </row>
     <row r="65">
@@ -5436,41 +6003,39 @@
       <c r="G65" t="n">
         <v>0.03333333333333333</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>0.008076923076923077</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>where</t>
         </is>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>0.1152941176470588</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>0.09</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>INSERT</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="n">
+        <v>0.06035746606334842</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>table</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>CRUD</t>
         </is>
       </c>
       <c r="Q65" t="n">
@@ -5478,11 +6043,22 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S65" t="n">
+      <c r="U65" t="n">
         <v>0.16</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.08615384615384616</v>
       </c>
     </row>
     <row r="66">
@@ -5515,54 +6091,63 @@
       <c r="G66" t="n">
         <v>0.108974358974359</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>0.04716117216117216</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>0.2899408284023668</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>0.2461538461538462</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>0.2051282051282051</v>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="n">
+        <v>0.1943769665259845</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>0.5384615384615385</v>
       </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.3846153846153846</v>
-      </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>CRUD</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S66" t="n">
         <v>0.3846153846153846</v>
       </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.2307692307692308</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5594,53 +6179,62 @@
       <c r="G67" t="n">
         <v>0.1451612903225807</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="H67" t="n">
+        <v>0.03111559139784946</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
         <v>0.2111436950146627</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>동시접속</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>0.2019635343618513</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O67" t="n">
+        <v>0.1204265908545622</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="S67" t="n">
+      <c r="U67" t="n">
         <v>0.2258064516129032</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.1008064516129032</v>
       </c>
     </row>
     <row r="68">
@@ -5673,53 +6267,62 @@
       <c r="G68" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="n">
+        <v>0.003463203463203464</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>CREATE</t>
         </is>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>0.0761904761904762</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>READ</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>0.0761904761904762</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>UPDATE</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>0.0761904761904762</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="n">
+        <v>0.05533910533910533</v>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>0.5238095238095237</v>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="Q68" t="n">
+      <c r="S68" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="S68" t="n">
+      <c r="U68" t="n">
         <v>0.1904761904761905</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="69">
@@ -5752,53 +6355,62 @@
       <c r="G69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="n">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>0.7333333333333333</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>DBS</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>비용높음</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>0.44</v>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="n">
+        <v>0.4341684822076979</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>1.181818181818182</v>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>DBS</t>
         </is>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>0.9090909090909092</v>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>비용높음</t>
         </is>
       </c>
-      <c r="S69" t="n">
+      <c r="U69" t="n">
         <v>0.1818181818181818</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="70">
@@ -5831,41 +6443,39 @@
       <c r="G70" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>0.03809523809523809</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>0.3787878787878788</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="n">
+        <v>0.2366522366522366</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q70" t="n">
@@ -5873,12 +6483,23 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>non-RDBMS</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S70" t="n">
         <v>0.5</v>
       </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>non-RDBMS</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.3809523809523809</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5910,53 +6531,62 @@
       <c r="G71" t="n">
         <v>0.07692307692307693</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>0.04725274725274726</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>0.5</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>데이터</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>0.3616071428571429</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>0.2692307692307692</v>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="n">
+        <v>0.2717152886795743</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O71" t="n">
+      <c r="Q71" t="n">
         <v>1.071428571428571</v>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="Q71" t="n">
+      <c r="S71" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="S71" t="n">
+      <c r="U71" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.2095238095238096</v>
       </c>
     </row>
     <row r="72">
@@ -5989,53 +6619,62 @@
       <c r="G72" t="n">
         <v>0.08571428571428572</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>0.02867965367965368</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>0.3219047619047619</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>0.2678571428571428</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>0.261501210653753</v>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="n">
+        <v>0.1379416480005298</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="Q72" t="n">
+      <c r="S72" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>연산</t>
         </is>
       </c>
-      <c r="S72" t="n">
+      <c r="U72" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="73">
@@ -6068,53 +6707,62 @@
       <c r="G73" t="n">
         <v>0.01724137931034483</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>0.002632554690396737</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>DBS</t>
         </is>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>키</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>0.05333333333333334</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>0.05333333333333334</v>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="n">
+        <v>0.04716845878136199</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O73" t="n">
+      <c r="Q73" t="n">
         <v>0.5</v>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>관계</t>
         </is>
       </c>
-      <c r="S73" t="n">
+      <c r="U73" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.06881720430107527</v>
       </c>
     </row>
     <row r="74">
@@ -6147,54 +6795,63 @@
       <c r="G74" t="n">
         <v>0.02339181286549707</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="n">
+        <v>0.006578947368421052</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>속성</t>
         </is>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>0.1203007518796992</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>열</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>0.1096491228070175</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>데이터</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>0.1052631578947368</v>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="O74" t="n">
+        <v>0.07219924812030076</v>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O74" t="n">
+      <c r="Q74" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.2105263157894737</v>
-      </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>키</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S74" t="n">
         <v>0.2105263157894737</v>
       </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>키</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.1105263157894737</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -6226,41 +6883,39 @@
       <c r="G75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" t="n">
+        <v>0.00695970695970696</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>relation-instance</t>
         </is>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>릴레이션스키마</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>속성</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="n">
+        <v>0.08253968253968254</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="O75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>관계</t>
         </is>
       </c>
       <c r="Q75" t="n">
@@ -6268,11 +6923,22 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
+          <t>관계</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S75" t="n">
+      <c r="U75" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -6305,54 +6971,63 @@
       <c r="G76" t="n">
         <v>0.07575757575757576</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="n">
+        <v>0.05011655011655011</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>데이터파일</t>
         </is>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>0.3555555555555555</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>0.3472222222222223</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>데이터</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>0.28125</v>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="n">
+        <v>0.2241010904804008</v>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O76" t="n">
+      <c r="Q76" t="n">
         <v>0.75</v>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>데이터파일</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.4166666666666666</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>응용프로그램</t>
         </is>
       </c>
       <c r="S76" t="n">
         <v>0.4166666666666666</v>
       </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>응용프로그램</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.2564102564102564</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6384,53 +7059,62 @@
       <c r="G77" t="n">
         <v>0.1515151515151515</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>0.12004662004662</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>데이터</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>0.3787878787878788</v>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="n">
+        <v>0.3461353958665787</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="O77" t="n">
+      <c r="Q77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="Q77" t="n">
+      <c r="S77" t="n">
         <v>0.5</v>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>데이터</t>
         </is>
       </c>
-      <c r="S77" t="n">
+      <c r="U77" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="78">
@@ -6463,53 +7147,62 @@
       <c r="G78" t="n">
         <v>0.04347826086956522</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="H78" t="n">
+        <v>0.01036231884057971</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>0.15</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>고립성</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>0.1200980392156863</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O78" t="n">
+        <v>0.09158235011176187</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
         <v>0.375</v>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="Q78" t="n">
+      <c r="S78" t="n">
         <v>0.2916666666666666</v>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S78" t="n">
+      <c r="U78" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="79">
@@ -6542,53 +7235,62 @@
       <c r="G79" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="H79" t="n">
+        <v>0.04044117647058824</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
         <v>0.3125</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>0.2045454545454545</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>트랜잭션</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>0.2045454545454545</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O79" t="n">
+        <v>0.1798556835321541</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
         <v>0.8125</v>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="Q79" t="n">
+      <c r="S79" t="n">
         <v>0.3125</v>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S79" t="n">
+      <c r="U79" t="n">
         <v>0.1875</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.1544117647058824</v>
       </c>
     </row>
     <row r="80">
@@ -6621,53 +7323,62 @@
       <c r="G80" t="n">
         <v>0</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="H80" t="n">
+        <v>0.0402930402930403</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>0.2517482517482517</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>개략적스킴</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>0.2136752136752137</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O80" t="n">
+        <v>0.2140748140748141</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
         <v>0.8461538461538463</v>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>개략적스킴</t>
         </is>
       </c>
-      <c r="Q80" t="n">
+      <c r="S80" t="n">
         <v>0.6923076923076923</v>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>무결성</t>
         </is>
       </c>
-      <c r="S80" t="n">
+      <c r="U80" t="n">
         <v>0.1538461538461539</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.1978021978021979</v>
       </c>
     </row>
     <row r="81">
@@ -6700,53 +7411,62 @@
       <c r="G81" t="n">
         <v>0.02849002849002849</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="n">
+        <v>0.005647130647130647</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>TCL</t>
         </is>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0.2633744855967078</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>0.1904761904761905</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>BEGIN</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>0.1481481481481481</v>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="n">
+        <v>0.09561812379272694</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>TCL</t>
         </is>
       </c>
-      <c r="O81" t="n">
+      <c r="Q81" t="n">
         <v>0.4814814814814815</v>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>쿼리</t>
         </is>
       </c>
-      <c r="Q81" t="n">
+      <c r="S81" t="n">
         <v>0.3703703703703703</v>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="S81" t="n">
+      <c r="U81" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.1031746031746032</v>
       </c>
     </row>
     <row r="82">
@@ -6779,53 +7499,62 @@
       <c r="G82" t="n">
         <v>0.1168831168831169</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="n">
+        <v>0.03830227743271221</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>0.3426573426573427</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
         <v>0.2644628099173554</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>READ</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>0.2407862407862408</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O82" t="n">
+        <v>0.1806689308936999</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
         <v>0.5</v>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="Q82" t="n">
+      <c r="S82" t="n">
         <v>0.4090909090909091</v>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S82" t="n">
+      <c r="U82" t="n">
         <v>0.2727272727272727</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.150197628458498</v>
       </c>
     </row>
     <row r="83">
@@ -6858,53 +7587,62 @@
       <c r="G83" t="n">
         <v>0.05928853754940711</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="n">
+        <v>0.01646903820816864</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>0.08695652173913043</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>INSERT</t>
         </is>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>0.07608695652173914</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>SELECT</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>0.07608695652173914</v>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="O83" t="n">
+        <v>0.07033298826777086</v>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>DBMS</t>
         </is>
       </c>
-      <c r="O83" t="n">
+      <c r="Q83" t="n">
         <v>0.3478260869565217</v>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q83" t="n">
+      <c r="S83" t="n">
         <v>0.2608695652173913</v>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S83" t="n">
+      <c r="U83" t="n">
         <v>0.2173913043478261</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.09057971014492754</v>
       </c>
     </row>
     <row r="84">
@@ -6937,41 +7675,39 @@
       <c r="G84" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="n">
+        <v>0.009068627450980393</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>0.1875</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
         <v>0.140625</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>0.140625</v>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="n">
+        <v>0.1066584967320261</v>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>MySQL</t>
-        </is>
-      </c>
-      <c r="O84" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>CRUD</t>
         </is>
       </c>
       <c r="Q84" t="n">
@@ -6979,11 +7715,22 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S84" t="n">
+      <c r="U84" t="n">
         <v>0.25</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.1544117647058824</v>
       </c>
     </row>
     <row r="85">
@@ -7016,54 +7763,63 @@
       <c r="G85" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="n">
+        <v>0.01222943722943723</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>UPDATE</t>
         </is>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>0.2267573696145125</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>READ</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>0.2070393374741201</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>0.1904761904761905</v>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="n">
+        <v>0.101650737882622</v>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>UPDATE</t>
         </is>
       </c>
-      <c r="O85" t="n">
+      <c r="Q85" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>데이터베이스</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
         </is>
       </c>
       <c r="S85" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -7095,53 +7851,62 @@
       <c r="G86" t="n">
         <v>0.2785714285714286</v>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="n">
+        <v>0.09553571428571428</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>0.48</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
         <v>0.4173913043478261</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>0.384</v>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="O86" t="n">
+        <v>0.2912389477730702</v>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O86" t="n">
+      <c r="Q86" t="n">
         <v>0.8</v>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q86" t="n">
+      <c r="S86" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="S86" t="n">
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
         <v>0.4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.225</v>
       </c>
     </row>
     <row r="87">
@@ -7174,54 +7939,63 @@
       <c r="G87" t="n">
         <v>0.04411764705882353</v>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="n">
+        <v>0.01000816993464052</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>0.2450980392156863</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>무결성</t>
         </is>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>0.2100840336134454</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="O87" t="n">
+        <v>0.1055068751147182</v>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="O87" t="n">
+      <c r="Q87" t="n">
         <v>0.4117647058823529</v>
       </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.2941176470588235</v>
-      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S87" t="n">
         <v>0.2941176470588235</v>
       </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.1503267973856209</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -7253,53 +8027,62 @@
       <c r="G88" t="n">
         <v>0.1023391812865497</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="H88" t="n">
+        <v>0.02982456140350877</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
         <v>0.2192982456140351</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>0.1722488038277512</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>0.1644736842105263</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O88" t="n">
+        <v>0.1253573690750741</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
         <v>0.4210526315789473</v>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q88" t="n">
+      <c r="S88" t="n">
         <v>0.3157894736842105</v>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S88" t="n">
+      <c r="U88" t="n">
         <v>0.2631578947368421</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.1263157894736842</v>
       </c>
     </row>
     <row r="89">
@@ -7332,53 +8115,62 @@
       <c r="G89" t="n">
         <v>0.4393939393939394</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="H89" t="n">
+        <v>0.1227178618482966</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
         <v>0.4090909090909091</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>0.3644628099173554</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>0.3579545454545455</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O89" t="n">
+        <v>0.2695417598818672</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
         <v>0.5454545454545454</v>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="Q89" t="n">
+      <c r="S89" t="n">
         <v>0.4545454545454546</v>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S89" t="n">
+      <c r="U89" t="n">
         <v>0.4090909090909091</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.1778656126482213</v>
       </c>
     </row>
     <row r="90">
@@ -7411,53 +8203,62 @@
       <c r="G90" t="n">
         <v>0.01904761904761905</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="n">
+        <v>0.005735930735930736</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>0.126984126984127</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="O90" t="n">
+        <v>0.07416194916194917</v>
+      </c>
+      <c r="P90" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O90" t="n">
+      <c r="Q90" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="Q90" t="n">
+      <c r="S90" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="S90" t="n">
+      <c r="U90" t="n">
         <v>0.2380952380952381</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.1038961038961038</v>
       </c>
     </row>
     <row r="91">
@@ -7490,54 +8291,63 @@
       <c r="G91" t="n">
         <v>0.04444444444444445</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="n">
+        <v>0.03131313131313131</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>0.5</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
         <v>0.3200000000000001</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>0.3200000000000001</v>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="O91" t="n">
+        <v>0.2931024531024531</v>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="O91" t="n">
+      <c r="Q91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.6000000000000001</v>
-      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>non-RDBMS</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="S91" t="n">
         <v>0.6000000000000001</v>
       </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>non-RDBMS</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.3818181818181818</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7569,53 +8379,62 @@
       <c r="G92" t="n">
         <v>0.1911231884057971</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="H92" t="n">
+        <v>0.05688405797101449</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
         <v>0.3520833333333333</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>0.2934027777777777</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>0.2708333333333333</v>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O92" t="n">
+        <v>0.1933942810986448</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
         <v>0.5</v>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="Q92" t="n">
+      <c r="S92" t="n">
         <v>0.375</v>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="S92" t="n">
+      <c r="U92" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.1466666666666667</v>
       </c>
     </row>
     <row r="93">
@@ -7648,41 +8467,39 @@
       <c r="G93" t="n">
         <v>0.1041666666666667</v>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="n">
+        <v>0.02696078431372548</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>MySQL</t>
         </is>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>0.3472222222222222</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>0.3289473684210526</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>0.25</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O93" t="n">
-        <v>0.625</v>
+        <v>0.1795272494962897</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>CRUD</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q93" t="n">
@@ -7690,11 +8507,22 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
+          <t>CRUD</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
           <t>table</t>
         </is>
       </c>
-      <c r="S93" t="n">
+      <c r="U93" t="n">
         <v>0.3125</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.1911764705882353</v>
       </c>
     </row>
     <row r="94">
@@ -7727,41 +8555,39 @@
       <c r="G94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="n">
+        <v>0.0119047619047619</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>데이터베이스</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>0.1904761904761905</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
       <c r="O94" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>non-RDBMS</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="Q94" t="n">
@@ -7769,11 +8595,22 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
+          <t>non-RDBMS</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="S94" t="n">
+      <c r="U94" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="95">
@@ -7806,60 +8643,69 @@
       <c r="G95" t="n">
         <v>0.07333333333333333</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="n">
+        <v>0.01807692307692308</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>basic-syntax</t>
         </is>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>0.2133333333333333</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>where</t>
         </is>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>0.1827027027027027</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>0.1827027027027027</v>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="O95" t="n">
+        <v>0.1013615680650094</v>
+      </c>
+      <c r="P95" t="inlineStr">
         <is>
           <t>basic-syntax</t>
         </is>
       </c>
-      <c r="O95" t="n">
+      <c r="Q95" t="n">
         <v>0.44</v>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="R95" t="inlineStr">
         <is>
           <t>non-RDBMS</t>
         </is>
       </c>
-      <c r="Q95" t="n">
+      <c r="S95" t="n">
         <v>0.28</v>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="S95" t="n">
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>RDBMS</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
         <v>0.2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.1230769230769231</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="I1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
